--- a/Data/Demand Model/OtherSectors_Demand.xlsx
+++ b/Data/Demand Model/OtherSectors_Demand.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Pablo\Educacion\Aprendizaje Continuo\Codigos utiles\R\Proyectos R\Critical-Minerals-EV\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Pablo\Educacion\Aprendizaje Continuo\Codigos utiles\R\Proyectos R\Lithium-Supply\Data\Demand Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7CDD6E-CC8A-43DD-8F9D-46342CDED9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C262B481-5CCD-433B-B23F-2D8A66F951E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3285" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{1766E15A-CC8F-42A7-90C5-CE0AF101E964}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1766E15A-CC8F-42A7-90C5-CE0AF101E964}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="5" r:id="rId1"/>
     <sheet name="Population" sheetId="6" r:id="rId2"/>
-    <sheet name="Nickel" sheetId="1" r:id="rId3"/>
-    <sheet name="Lithium" sheetId="2" r:id="rId4"/>
-    <sheet name="Miatto2021 Results" sheetId="3" r:id="rId5"/>
-    <sheet name="Cobalt" sheetId="4" r:id="rId6"/>
+    <sheet name="Lithium" sheetId="2" r:id="rId3"/>
+    <sheet name="Miatto2021 Results" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Miatto2021 Results'!$A$5:$E$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Miatto2021 Results'!$A$5:$E$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,10 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="171">
-  <si>
-    <t>kg Ni/ton stainless steel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="122">
   <si>
     <t>Reference</t>
   </si>
@@ -58,9 +53,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://pubs.usgs.gov/myb/vol1/2018/myb1-2018-nickel.pdf</t>
-  </si>
-  <si>
     <t>USGS 2018 Minerals Yearbook</t>
   </si>
   <si>
@@ -76,93 +68,36 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Nickel</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
     <t>Page</t>
   </si>
   <si>
-    <t>metric tons</t>
-  </si>
-  <si>
     <t>World</t>
   </si>
   <si>
-    <t>Nickel in Stainless steel</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t>Production</t>
   </si>
   <si>
-    <t>Stainless steel</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Stainless stell + heat-resistant steel</t>
-  </si>
-  <si>
-    <t>66% of total consumption</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Not including from scrap</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Table 4</t>
-  </si>
-  <si>
-    <t>Both primary and secondary</t>
-  </si>
-  <si>
-    <t>Exports</t>
-  </si>
-  <si>
-    <t>Imports</t>
-  </si>
-  <si>
-    <t>Table 8</t>
-  </si>
-  <si>
-    <t>Table 6</t>
-  </si>
-  <si>
     <t>Intensity</t>
   </si>
   <si>
-    <t>Does not include nickel from scrappage</t>
-  </si>
-  <si>
     <t>Statista</t>
   </si>
   <si>
-    <t>https://www.statista.com/statistics/223028/world-stainless-steel-production/</t>
-  </si>
-  <si>
     <t>Original source</t>
   </si>
   <si>
-    <t>Stainless Steel in Figures 2022, page 8</t>
-  </si>
-  <si>
-    <t>Stainless steel melt shop production worldwide 2005-2021</t>
-  </si>
-  <si>
-    <t>Global stainless steel melt shop production from 2005 to 2021 (in 1,000 metric tons)</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -172,15 +107,9 @@
     <t>2021</t>
   </si>
   <si>
-    <t>https://data.worldbank.org/indicator/NY.GDP.MKTP.KD?end=2022&amp;start=1960&amp;view=chart</t>
-  </si>
-  <si>
     <t>GDP, in trillion, constant price 2015</t>
   </si>
   <si>
-    <t>Stainless Steel, tons</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
@@ -194,9 +123,6 @@
   </si>
   <si>
     <t>Exhibit 14</t>
-  </si>
-  <si>
-    <t>orig</t>
   </si>
   <si>
     <t>year</t>
@@ -512,63 +438,6 @@
     <t>https</t>
   </si>
   <si>
-    <t>https://pubs.usgs.gov/myb/vol1/2018/myb1-2018-cobalt.pdf</t>
-  </si>
-  <si>
-    <t>Cobalt</t>
-  </si>
-  <si>
-    <t>metric tons mined</t>
-  </si>
-  <si>
-    <t>metric tons refined</t>
-  </si>
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>metric tons cobalt</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>Steels and alloys, excludes superalloys</t>
-  </si>
-  <si>
-    <t>superalloys</t>
-  </si>
-  <si>
-    <t>cemented carbides</t>
-  </si>
-  <si>
-    <t>chemical and ceramic uses</t>
-  </si>
-  <si>
-    <t>Cobalt Institute</t>
-  </si>
-  <si>
-    <t>https://www.cobaltinstitute.org/wp-content/uploads/2023/05/Cobalt-Market-Report-2022_final.pdf</t>
-  </si>
-  <si>
-    <t>Figure 5</t>
-  </si>
-  <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>Portables</t>
-  </si>
-  <si>
-    <t>Hard metals</t>
-  </si>
-  <si>
-    <t>Catalyst</t>
-  </si>
-  <si>
-    <t>Ceramic/Colours</t>
-  </si>
-  <si>
     <t>Demand tons</t>
   </si>
   <si>
@@ -604,33 +473,15 @@
       <t>.</t>
     </r>
   </si>
-  <si>
-    <t>nonferrous alloys</t>
-  </si>
-  <si>
-    <t>electroplating and other surface finishing</t>
-  </si>
-  <si>
-    <t>alloy steels other than stainless</t>
-  </si>
-  <si>
-    <t>foundry products</t>
-  </si>
-  <si>
-    <t>Stainless Steel</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,20 +504,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -732,15 +569,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -751,11 +586,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -765,17 +596,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -799,691 +630,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Nickel!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stainless Steel, tons</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Nickel!$B$31:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Nickel!$D$31:$D$47</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>24546000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28706000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28146000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26218000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24904000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31090000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33621000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35917000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>38506000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41686000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41548000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45448000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48081000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50730000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>52218000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51792000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>58289000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0998-45A3-874F-84BFCAF66620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1119762960"/>
-        <c:axId val="740423552"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Nickel!$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GDP, in trillion, constant price 2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Nickel!$B$31:$B$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Nickel!$E$31:$E$47</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>55.998801232602979</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>58.484841163276471</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.034300845079962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>62.326278234916764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61.477891488524705</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64.237462394672548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.367453584778701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68.157384086511911</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.075228524737241</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>72.216468829490253</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>74.456101902167802</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>76.508467994648427</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>79.1082831925698</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>81.704465409096983</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>83.780536101434265</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>81.17414903171705</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>86.201968718126139</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0998-45A3-874F-84BFCAF66620}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1020691584"/>
-        <c:axId val="1020692576"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1119762960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="740423552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="740423552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>Nickel!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stainless Steel, tons</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr">
-                <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1119762960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1020692576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:strRef>
-              <c:f>Nickel!$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GDP, in trillion, constant price 2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1020691584"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1020691584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1020692576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr algn="ctr" rtl="0">
-        <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2090,7 +1236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2656,7 +1802,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2732,6 +1878,174 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2765,6 +2079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2780,6 +2099,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2795,6 +2119,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2810,6 +2139,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2825,6 +2159,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2840,6 +2179,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2857,6 +2201,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2874,6 +2223,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2891,6 +2245,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2908,6 +2267,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2925,6 +2289,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2942,6 +2311,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-3F00-465A-85DF-1B8E7673C76A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3251,46 +2625,6 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3847,522 +3181,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4867,7 +3685,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="333">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5395,47 +4213,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1181099</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA7B5FE-5B63-FBFC-8874-B3AF924082AA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5555,7 +4332,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5669,7 +4446,7 @@
         <n v="0"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="%" numFmtId="168">
+    <cacheField name="%" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="0.24509053031463496" count="18">
         <n v="0.24509053031463496"/>
         <n v="0.12254526515731748"/>
@@ -5888,7 +4665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B337ED83-FAD5-45D0-BFD1-3AF4496A4E13}" name="TD_'Miatto2021 Results'" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="19">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B337ED83-FAD5-45D0-BFD1-3AF4496A4E13}" name="TD_'Miatto2021 Results'" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="19">
   <location ref="L11:M25" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -5967,7 +4744,7 @@
         <item x="0"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="168" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0" defaultSubtotal="0">
       <items count="18">
         <item x="17"/>
         <item x="16"/>
@@ -6052,12 +4829,156 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="13">
     <chartFormat chart="9" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6076,9 +4997,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6116,7 +5037,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6222,7 +5143,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6364,7 +5285,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6375,7 +5296,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,16 +5307,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6406,13 +5327,13 @@
         <v>55.998801232602979</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6423,7 +5344,7 @@
         <v>58.484841163276471</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6551,14 +5472,13 @@
         <v>2022</v>
       </c>
       <c r="B19" s="2">
-        <f>+Nickel!E48</f>
         <v>88.7861839055075</v>
       </c>
       <c r="C19">
         <v>2.4</v>
       </c>
       <c r="D19" s="1">
-        <f>+B19/$B$19</f>
+        <f t="shared" ref="D19:D50" si="0">+B19/$B$19</f>
         <v>1</v>
       </c>
     </row>
@@ -6567,15 +5487,15 @@
         <v>2023</v>
       </c>
       <c r="B20" s="2">
-        <f>+B19*(1+C19/100)</f>
+        <f t="shared" ref="B20:B51" si="1">+B19*(1+C19/100)</f>
         <v>90.917052319239687</v>
       </c>
       <c r="C20">
-        <f>+C19</f>
+        <f t="shared" ref="C20:C26" si="2">+C19</f>
         <v>2.4</v>
       </c>
       <c r="D20" s="1">
-        <f>+B20/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.024</v>
       </c>
     </row>
@@ -6584,15 +5504,15 @@
         <v>2024</v>
       </c>
       <c r="B21" s="2">
-        <f>+B20*(1+C20/100)</f>
+        <f t="shared" si="1"/>
         <v>93.099061574901441</v>
       </c>
       <c r="C21">
-        <f>+C20</f>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="D21" s="1">
-        <f>+B21/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.0485760000000002</v>
       </c>
     </row>
@@ -6601,15 +5521,15 @@
         <v>2025</v>
       </c>
       <c r="B22" s="2">
-        <f>+B21*(1+C21/100)</f>
+        <f t="shared" si="1"/>
         <v>95.333439052699077</v>
       </c>
       <c r="C22">
-        <f>+C21</f>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="D22" s="1">
-        <f>+B22/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.0737418240000001</v>
       </c>
     </row>
@@ -6618,15 +5538,15 @@
         <v>2026</v>
       </c>
       <c r="B23" s="2">
-        <f>+B22*(1+C22/100)</f>
+        <f t="shared" si="1"/>
         <v>97.621441589963851</v>
       </c>
       <c r="C23">
-        <f>+C22</f>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="D23" s="1">
-        <f>+B23/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.099511627776</v>
       </c>
     </row>
@@ -6635,15 +5555,15 @@
         <v>2027</v>
       </c>
       <c r="B24" s="2">
-        <f>+B23*(1+C23/100)</f>
+        <f t="shared" si="1"/>
         <v>99.964356188122991</v>
       </c>
       <c r="C24">
-        <f>+C23</f>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="D24" s="1">
-        <f>+B24/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.1258999068426241</v>
       </c>
     </row>
@@ -6652,15 +5572,15 @@
         <v>2028</v>
       </c>
       <c r="B25" s="2">
-        <f>+B24*(1+C24/100)</f>
+        <f t="shared" si="1"/>
         <v>102.36350073663795</v>
       </c>
       <c r="C25">
-        <f>+C24</f>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="D25" s="1">
-        <f>+B25/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.1529215046068473</v>
       </c>
     </row>
@@ -6669,15 +5589,15 @@
         <v>2029</v>
       </c>
       <c r="B26" s="2">
-        <f>+B25*(1+C25/100)</f>
+        <f t="shared" si="1"/>
         <v>104.82022475431725</v>
       </c>
       <c r="C26">
-        <f>+C25</f>
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
       <c r="D26" s="1">
-        <f>+B26/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.1805916207174114</v>
       </c>
     </row>
@@ -6686,14 +5606,14 @@
         <v>2030</v>
       </c>
       <c r="B27" s="2">
-        <f>+B26*(1+C26/100)</f>
+        <f t="shared" si="1"/>
         <v>107.33591014842087</v>
       </c>
       <c r="C27">
         <v>2.5</v>
       </c>
       <c r="D27" s="1">
-        <f>+B27/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.2089258196146293</v>
       </c>
     </row>
@@ -6702,15 +5622,15 @@
         <v>2031</v>
       </c>
       <c r="B28" s="2">
-        <f>+B27*(1+C27/100)</f>
+        <f t="shared" si="1"/>
         <v>110.01930790213137</v>
       </c>
       <c r="C28">
-        <f>+C27</f>
+        <f t="shared" ref="C28:C36" si="3">+C27</f>
         <v>2.5</v>
       </c>
       <c r="D28" s="1">
-        <f>+B28/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.2391489651049949</v>
       </c>
     </row>
@@ -6719,15 +5639,15 @@
         <v>2032</v>
       </c>
       <c r="B29" s="2">
-        <f>+B28*(1+C28/100)</f>
+        <f t="shared" si="1"/>
         <v>112.76979059968465</v>
       </c>
       <c r="C29">
-        <f>+C28</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D29" s="1">
-        <f>+B29/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.2701276892326196</v>
       </c>
     </row>
@@ -6736,15 +5656,15 @@
         <v>2033</v>
       </c>
       <c r="B30" s="2">
-        <f>+B29*(1+C29/100)</f>
+        <f t="shared" si="1"/>
         <v>115.58903536467676</v>
       </c>
       <c r="C30">
-        <f>+C29</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D30" s="1">
-        <f>+B30/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.3018808814634351</v>
       </c>
     </row>
@@ -6753,15 +5673,15 @@
         <v>2034</v>
       </c>
       <c r="B31" s="2">
-        <f>+B30*(1+C30/100)</f>
+        <f t="shared" si="1"/>
         <v>118.47876124879367</v>
       </c>
       <c r="C31">
-        <f>+C30</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D31" s="1">
-        <f>+B31/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.3344279035000211</v>
       </c>
     </row>
@@ -6770,15 +5690,15 @@
         <v>2035</v>
       </c>
       <c r="B32" s="2">
-        <f>+B31*(1+C31/100)</f>
+        <f t="shared" si="1"/>
         <v>121.44073028001351</v>
       </c>
       <c r="C32">
-        <f>+C31</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D32" s="1">
-        <f>+B32/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.3677886010875213</v>
       </c>
     </row>
@@ -6787,15 +5707,15 @@
         <v>2036</v>
       </c>
       <c r="B33" s="2">
-        <f>+B32*(1+C32/100)</f>
+        <f t="shared" si="1"/>
         <v>124.47674853701383</v>
       </c>
       <c r="C33">
-        <f>+C32</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D33" s="1">
-        <f>+B33/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.4019833161147093</v>
       </c>
     </row>
@@ -6804,15 +5724,15 @@
         <v>2037</v>
       </c>
       <c r="B34" s="2">
-        <f>+B33*(1+C33/100)</f>
+        <f t="shared" si="1"/>
         <v>127.58866725043917</v>
       </c>
       <c r="C34">
-        <f>+C33</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D34" s="1">
-        <f>+B34/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.4370328990175769</v>
       </c>
     </row>
@@ -6821,15 +5741,15 @@
         <v>2038</v>
       </c>
       <c r="B35" s="2">
-        <f>+B34*(1+C34/100)</f>
+        <f t="shared" si="1"/>
         <v>130.77838393170015</v>
       </c>
       <c r="C35">
-        <f>+C34</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D35" s="1">
-        <f>+B35/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.4729587214930162</v>
       </c>
     </row>
@@ -6838,15 +5758,15 @@
         <v>2039</v>
       </c>
       <c r="B36" s="2">
-        <f>+B35*(1+C35/100)</f>
+        <f t="shared" si="1"/>
         <v>134.04784352999263</v>
       </c>
       <c r="C36">
-        <f>+C35</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="D36" s="1">
-        <f>+B36/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.5097826895303414</v>
       </c>
     </row>
@@ -6855,14 +5775,14 @@
         <v>2040</v>
       </c>
       <c r="B37" s="2">
-        <f>+B36*(1+C36/100)</f>
+        <f t="shared" si="1"/>
         <v>137.39903961824243</v>
       </c>
       <c r="C37">
         <v>2.1</v>
       </c>
       <c r="D37" s="1">
-        <f>+B37/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.5475272567685998</v>
       </c>
     </row>
@@ -6871,15 +5791,15 @@
         <v>2041</v>
       </c>
       <c r="B38" s="2">
-        <f>+B37*(1+C37/100)</f>
+        <f t="shared" si="1"/>
         <v>140.2844194502255</v>
       </c>
       <c r="C38">
-        <f>+C37</f>
+        <f t="shared" ref="C38:C46" si="4">+C37</f>
         <v>2.1</v>
       </c>
       <c r="D38" s="1">
-        <f>+B38/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.5800253291607402</v>
       </c>
     </row>
@@ -6888,15 +5808,15 @@
         <v>2042</v>
       </c>
       <c r="B39" s="2">
-        <f>+B38*(1+C38/100)</f>
+        <f t="shared" si="1"/>
         <v>143.23039225868021</v>
       </c>
       <c r="C39">
-        <f>+C38</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D39" s="1">
-        <f>+B39/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.6132058610731155</v>
       </c>
     </row>
@@ -6905,15 +5825,15 @@
         <v>2043</v>
       </c>
       <c r="B40" s="2">
-        <f>+B39*(1+C39/100)</f>
+        <f t="shared" si="1"/>
         <v>146.23823049611249</v>
       </c>
       <c r="C40">
-        <f>+C39</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D40" s="1">
-        <f>+B40/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.6470831841556508</v>
       </c>
     </row>
@@ -6922,15 +5842,15 @@
         <v>2044</v>
       </c>
       <c r="B41" s="2">
-        <f>+B40*(1+C40/100)</f>
+        <f t="shared" si="1"/>
         <v>149.30923333653084</v>
       </c>
       <c r="C41">
-        <f>+C40</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D41" s="1">
-        <f>+B41/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.6816719310229193</v>
       </c>
     </row>
@@ -6939,15 +5859,15 @@
         <v>2045</v>
       </c>
       <c r="B42" s="2">
-        <f>+B41*(1+C41/100)</f>
+        <f t="shared" si="1"/>
         <v>152.44472723659797</v>
       </c>
       <c r="C42">
-        <f>+C41</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D42" s="1">
-        <f>+B42/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.7169870415744004</v>
       </c>
     </row>
@@ -6956,15 +5876,15 @@
         <v>2046</v>
       </c>
       <c r="B43" s="2">
-        <f>+B42*(1+C42/100)</f>
+        <f t="shared" si="1"/>
         <v>155.64606650856652</v>
       </c>
       <c r="C43">
-        <f>+C42</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D43" s="1">
-        <f>+B43/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.7530437694474628</v>
       </c>
     </row>
@@ -6973,15 +5893,15 @@
         <v>2047</v>
       </c>
       <c r="B44" s="2">
-        <f>+B43*(1+C43/100)</f>
+        <f t="shared" si="1"/>
         <v>158.9146339052464</v>
       </c>
       <c r="C44">
-        <f>+C43</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D44" s="1">
-        <f>+B44/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.7898576886058593</v>
       </c>
     </row>
@@ -6990,15 +5910,15 @@
         <v>2048</v>
       </c>
       <c r="B45" s="2">
-        <f>+B44*(1+C44/100)</f>
+        <f t="shared" si="1"/>
         <v>162.25184121725655</v>
       </c>
       <c r="C45">
-        <f>+C44</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D45" s="1">
-        <f>+B45/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.8274447000665821</v>
       </c>
     </row>
@@ -7007,15 +5927,15 @@
         <v>2049</v>
       </c>
       <c r="B46" s="2">
-        <f>+B45*(1+C45/100)</f>
+        <f t="shared" si="1"/>
         <v>165.65912988281892</v>
       </c>
       <c r="C46">
-        <f>+C45</f>
+        <f t="shared" si="4"/>
         <v>2.1</v>
       </c>
       <c r="D46" s="1">
-        <f>+B46/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.8658210387679801</v>
       </c>
     </row>
@@ -7024,14 +5944,14 @@
         <v>2050</v>
       </c>
       <c r="B47" s="2">
-        <f>+B46*(1+C46/100)</f>
+        <f t="shared" si="1"/>
         <v>169.13797161035811</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" s="1">
-        <f>+B47/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.9050032805821075</v>
       </c>
     </row>
@@ -7040,15 +5960,15 @@
         <v>2051</v>
       </c>
       <c r="B48" s="2">
-        <f>+B47*(1+C47/100)</f>
+        <f t="shared" si="1"/>
         <v>172.52073104256527</v>
       </c>
       <c r="C48">
-        <f>+C47</f>
+        <f t="shared" ref="C48:C56" si="5">+C47</f>
         <v>2</v>
       </c>
       <c r="D48" s="1">
-        <f>+B48/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.9431033461937497</v>
       </c>
     </row>
@@ -7057,15 +5977,15 @@
         <v>2052</v>
       </c>
       <c r="B49" s="2">
-        <f>+B48*(1+C48/100)</f>
+        <f t="shared" si="1"/>
         <v>175.97114566341659</v>
       </c>
       <c r="C49">
-        <f>+C48</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <f>+B49/$B$19</f>
+        <f t="shared" si="0"/>
         <v>1.981965413117625</v>
       </c>
     </row>
@@ -7074,15 +5994,15 @@
         <v>2053</v>
       </c>
       <c r="B50" s="2">
-        <f>+B49*(1+C49/100)</f>
+        <f t="shared" si="1"/>
         <v>179.49056857668492</v>
       </c>
       <c r="C50">
-        <f>+C49</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <f>+B50/$B$19</f>
+        <f t="shared" si="0"/>
         <v>2.0216047213799775</v>
       </c>
     </row>
@@ -7091,15 +6011,15 @@
         <v>2054</v>
       </c>
       <c r="B51" s="2">
-        <f>+B50*(1+C50/100)</f>
+        <f t="shared" si="1"/>
         <v>183.08037994821862</v>
       </c>
       <c r="C51">
-        <f>+C50</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D51" s="1">
-        <f>+B51/$B$19</f>
+        <f t="shared" ref="D51:D72" si="6">+B51/$B$19</f>
         <v>2.062036815807577</v>
       </c>
     </row>
@@ -7108,15 +6028,15 @@
         <v>2055</v>
       </c>
       <c r="B52" s="2">
-        <f>+B51*(1+C51/100)</f>
+        <f t="shared" ref="B52:B72" si="7">+B51*(1+C51/100)</f>
         <v>186.74198754718299</v>
       </c>
       <c r="C52">
-        <f>+C51</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D52" s="1">
-        <f>+B52/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.1032775521237284</v>
       </c>
     </row>
@@ -7125,15 +6045,15 @@
         <v>2056</v>
       </c>
       <c r="B53" s="2">
-        <f>+B52*(1+C52/100)</f>
+        <f t="shared" si="7"/>
         <v>190.47682729812664</v>
       </c>
       <c r="C53">
-        <f>+C52</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D53" s="1">
-        <f>+B53/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.1453431031662027</v>
       </c>
     </row>
@@ -7142,15 +6062,15 @@
         <v>2057</v>
       </c>
       <c r="B54" s="2">
-        <f>+B53*(1+C53/100)</f>
+        <f t="shared" si="7"/>
         <v>194.28636384408918</v>
       </c>
       <c r="C54">
-        <f>+C53</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D54" s="1">
-        <f>+B54/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.1882499652295269</v>
       </c>
     </row>
@@ -7159,15 +6079,15 @@
         <v>2058</v>
       </c>
       <c r="B55" s="2">
-        <f>+B54*(1+C54/100)</f>
+        <f t="shared" si="7"/>
         <v>198.17209112097098</v>
       </c>
       <c r="C55">
-        <f>+C54</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <f>+B55/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.2320149645341179</v>
       </c>
     </row>
@@ -7176,15 +6096,15 @@
         <v>2059</v>
       </c>
       <c r="B56" s="2">
-        <f>+B55*(1+C55/100)</f>
+        <f t="shared" si="7"/>
         <v>202.13553294339039</v>
       </c>
       <c r="C56">
-        <f>+C55</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <f>+B56/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.2766552638248001</v>
       </c>
     </row>
@@ -7193,14 +6113,14 @@
         <v>2060</v>
       </c>
       <c r="B57" s="2">
-        <f>+B56*(1+C56/100)</f>
+        <f t="shared" si="7"/>
         <v>206.17824360225819</v>
       </c>
       <c r="C57">
         <v>1.8</v>
       </c>
       <c r="D57" s="1">
-        <f>+B57/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.3221883691012959</v>
       </c>
     </row>
@@ -7209,15 +6129,15 @@
         <v>2061</v>
       </c>
       <c r="B58" s="2">
-        <f>+B57*(1+C57/100)</f>
+        <f t="shared" si="7"/>
         <v>209.88945198709885</v>
       </c>
       <c r="C58">
-        <f>+C57</f>
+        <f t="shared" ref="C58:C66" si="8">+C57</f>
         <v>1.8</v>
       </c>
       <c r="D58" s="1">
-        <f>+B58/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.3639877597451195</v>
       </c>
     </row>
@@ -7226,15 +6146,15 @@
         <v>2062</v>
       </c>
       <c r="B59" s="2">
-        <f>+B58*(1+C58/100)</f>
+        <f t="shared" si="7"/>
         <v>213.66746212286662</v>
       </c>
       <c r="C59">
-        <f>+C58</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D59" s="1">
-        <f>+B59/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.4065395394205313</v>
       </c>
     </row>
@@ -7243,15 +6163,15 @@
         <v>2063</v>
       </c>
       <c r="B60" s="2">
-        <f>+B59*(1+C59/100)</f>
+        <f t="shared" si="7"/>
         <v>217.51347644107824</v>
       </c>
       <c r="C60">
-        <f>+C59</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D60" s="1">
-        <f>+B60/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.4498572511301013</v>
       </c>
     </row>
@@ -7260,15 +6180,15 @@
         <v>2064</v>
       </c>
       <c r="B61" s="2">
-        <f>+B60*(1+C60/100)</f>
+        <f t="shared" si="7"/>
         <v>221.42871901701764</v>
       </c>
       <c r="C61">
-        <f>+C60</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D61" s="1">
-        <f>+B61/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.4939546816504432</v>
       </c>
     </row>
@@ -7277,15 +6197,15 @@
         <v>2065</v>
       </c>
       <c r="B62" s="2">
-        <f>+B61*(1+C61/100)</f>
+        <f t="shared" si="7"/>
         <v>225.41443595932395</v>
       </c>
       <c r="C62">
-        <f>+C61</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D62" s="1">
-        <f>+B62/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.5388458659201509</v>
       </c>
     </row>
@@ -7294,15 +6214,15 @@
         <v>2066</v>
       </c>
       <c r="B63" s="2">
-        <f>+B62*(1+C62/100)</f>
+        <f t="shared" si="7"/>
         <v>229.47189580659179</v>
       </c>
       <c r="C63">
-        <f>+C62</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D63" s="1">
-        <f>+B63/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.5845450915067136</v>
       </c>
     </row>
@@ -7311,15 +6231,15 @@
         <v>2067</v>
       </c>
       <c r="B64" s="2">
-        <f>+B63*(1+C63/100)</f>
+        <f t="shared" si="7"/>
         <v>233.60238993111045</v>
       </c>
       <c r="C64">
-        <f>+C63</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D64" s="1">
-        <f>+B64/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.6310669031538345</v>
       </c>
     </row>
@@ -7328,15 +6248,15 @@
         <v>2068</v>
       </c>
       <c r="B65" s="2">
-        <f>+B64*(1+C64/100)</f>
+        <f t="shared" si="7"/>
         <v>237.80723294987044</v>
       </c>
       <c r="C65">
-        <f>+C64</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D65" s="1">
-        <f>+B65/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.6784261074106035</v>
       </c>
     </row>
@@ -7345,15 +6265,15 @@
         <v>2069</v>
       </c>
       <c r="B66" s="2">
-        <f>+B65*(1+C65/100)</f>
+        <f t="shared" si="7"/>
         <v>242.0877631429681</v>
       </c>
       <c r="C66">
-        <f>+C65</f>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="D66" s="1">
-        <f>+B66/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.7266377773439943</v>
       </c>
     </row>
@@ -7362,14 +6282,14 @@
         <v>2070</v>
       </c>
       <c r="B67" s="2">
-        <f>+B66*(1+C66/100)</f>
+        <f t="shared" si="7"/>
         <v>246.44534287954153</v>
       </c>
       <c r="C67">
         <v>1.7</v>
       </c>
       <c r="D67" s="1">
-        <f>+B67/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.7757172573361863</v>
       </c>
     </row>
@@ -7378,7 +6298,7 @@
         <v>2071</v>
       </c>
       <c r="B68" s="2">
-        <f>+B67*(1+C67/100)</f>
+        <f t="shared" si="7"/>
         <v>250.63491370849371</v>
       </c>
       <c r="C68">
@@ -7386,7 +6306,7 @@
         <v>1.7</v>
       </c>
       <c r="D68" s="1">
-        <f>+B68/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.8229044507109013</v>
       </c>
     </row>
@@ -7395,7 +6315,7 @@
         <v>2072</v>
       </c>
       <c r="B69" s="2">
-        <f>+B68*(1+C68/100)</f>
+        <f t="shared" si="7"/>
         <v>254.89570724153808</v>
       </c>
       <c r="C69">
@@ -7403,7 +6323,7 @@
         <v>1.7</v>
       </c>
       <c r="D69" s="1">
-        <f>+B69/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.8708938263729862</v>
       </c>
     </row>
@@ -7412,7 +6332,7 @@
         <v>2073</v>
       </c>
       <c r="B70" s="2">
-        <f>+B69*(1+C69/100)</f>
+        <f t="shared" si="7"/>
         <v>259.22893426464418</v>
       </c>
       <c r="C70">
@@ -7420,7 +6340,7 @@
         <v>1.7</v>
       </c>
       <c r="D70" s="1">
-        <f>+B70/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.9196990214213265</v>
       </c>
     </row>
@@ -7429,7 +6349,7 @@
         <v>2074</v>
       </c>
       <c r="B71" s="2">
-        <f>+B70*(1+C70/100)</f>
+        <f t="shared" si="7"/>
         <v>263.63582614714312</v>
       </c>
       <c r="C71">
@@ -7437,7 +6357,7 @@
         <v>1.7</v>
       </c>
       <c r="D71" s="1">
-        <f>+B71/$B$19</f>
+        <f t="shared" si="6"/>
         <v>2.969333904785489</v>
       </c>
     </row>
@@ -7446,7 +6366,7 @@
         <v>2075</v>
       </c>
       <c r="B72" s="2">
-        <f>+B71*(1+C71/100)</f>
+        <f t="shared" si="7"/>
         <v>268.11763519164452</v>
       </c>
       <c r="C72">
@@ -7454,7 +6374,7 @@
         <v>1.7</v>
       </c>
       <c r="D72" s="1">
-        <f>+B72/$B$19</f>
+        <f t="shared" si="6"/>
         <v>3.0198125811668421</v>
       </c>
     </row>
@@ -7472,7 +6392,7 @@
   <dimension ref="A1:G152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7482,13 +6402,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7507,10 +6427,10 @@
         <v>2520969.5819999999</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -7520,8 +6440,8 @@
       <c r="B4" s="2">
         <v>2565291.179</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>164</v>
+      <c r="F4" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8084,7 +7004,7 @@
         <v>7941658.3159999996</v>
       </c>
       <c r="C74" s="1">
-        <f>+B74/$B$74</f>
+        <f t="shared" ref="C74:C105" si="0">+B74/$B$74</f>
         <v>1</v>
       </c>
     </row>
@@ -8096,7 +7016,7 @@
         <v>8008551.9950000001</v>
       </c>
       <c r="C75" s="1">
-        <f>+B75/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0084231373773951</v>
       </c>
     </row>
@@ -8108,7 +7028,7 @@
         <v>8082070.9000000004</v>
       </c>
       <c r="C76" s="1">
-        <f>+B76/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0176805118544463</v>
       </c>
     </row>
@@ -8120,7 +7040,7 @@
         <v>8155601.0990000004</v>
       </c>
       <c r="C77" s="1">
-        <f>+B77/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0269393084526153</v>
       </c>
     </row>
@@ -8132,7 +7052,7 @@
         <v>8228375.807</v>
       </c>
       <c r="C78" s="1">
-        <f>+B78/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0361029749192752</v>
       </c>
     </row>
@@ -8144,7 +7064,7 @@
         <v>8300353.2120000003</v>
       </c>
       <c r="C79" s="1">
-        <f>+B79/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0451662463590685</v>
       </c>
     </row>
@@ -8156,7 +7076,7 @@
         <v>8371602.1299999999</v>
       </c>
       <c r="C80" s="1">
-        <f>+B80/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0541377879647373</v>
       </c>
     </row>
@@ -8168,7 +7088,7 @@
         <v>8442055.4529999997</v>
       </c>
       <c r="C81" s="1">
-        <f>+B81/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0630091496119713</v>
       </c>
     </row>
@@ -8180,7 +7100,7 @@
         <v>8511723.3289999999</v>
       </c>
       <c r="C82" s="1">
-        <f>+B82/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0717816091195329</v>
       </c>
     </row>
@@ -8192,7 +7112,7 @@
         <v>8580559.3239999991</v>
       </c>
       <c r="C83" s="1">
-        <f>+B83/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0804493195977483</v>
       </c>
     </row>
@@ -8204,7 +7124,7 @@
         <v>8648506.1649999991</v>
       </c>
       <c r="C84" s="1">
-        <f>+B84/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0890050693286462</v>
       </c>
     </row>
@@ -8216,7 +7136,7 @@
         <v>8715677.8019999992</v>
       </c>
       <c r="C85" s="1">
-        <f>+B85/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.0974632067008712</v>
       </c>
     </row>
@@ -8228,7 +7148,7 @@
         <v>8781919.2809999995</v>
       </c>
       <c r="C86" s="1">
-        <f>+B86/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1058042201723954</v>
       </c>
     </row>
@@ -8240,7 +7160,7 @@
         <v>8847231.0610000007</v>
       </c>
       <c r="C87" s="1">
-        <f>+B87/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1140281675397128</v>
       </c>
     </row>
@@ -8252,7 +7172,7 @@
         <v>8911563.7410000004</v>
       </c>
       <c r="C88" s="1">
-        <f>+B88/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1221288283135953</v>
       </c>
     </row>
@@ -8264,7 +7184,7 @@
         <v>8974849.6630000006</v>
       </c>
       <c r="C89" s="1">
-        <f>+B89/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1300976831146763</v>
       </c>
     </row>
@@ -8276,7 +7196,7 @@
         <v>9037203.0759999994</v>
       </c>
       <c r="C90" s="1">
-        <f>+B90/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1379491179811669</v>
       </c>
     </row>
@@ -8288,7 +7208,7 @@
         <v>9098574.977</v>
       </c>
       <c r="C91" s="1">
-        <f>+B91/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1456769625393186</v>
       </c>
     </row>
@@ -8300,7 +7220,7 @@
         <v>9158747.4529999997</v>
       </c>
       <c r="C92" s="1">
-        <f>+B92/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1532537775577603</v>
       </c>
     </row>
@@ -8312,7 +7232,7 @@
         <v>9217753.5309999995</v>
       </c>
       <c r="C93" s="1">
-        <f>+B93/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1606837217397104</v>
       </c>
     </row>
@@ -8324,7 +7244,7 @@
         <v>9275593.0700000003</v>
       </c>
       <c r="C94" s="1">
-        <f>+B94/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1679667773306908</v>
       </c>
     </row>
@@ -8336,7 +7256,7 @@
         <v>9332200.6309999991</v>
       </c>
       <c r="C95" s="1">
-        <f>+B95/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1750947043640096</v>
       </c>
     </row>
@@ -8348,7 +7268,7 @@
         <v>9387472.2100000009</v>
       </c>
       <c r="C96" s="1">
-        <f>+B96/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.182054406834292</v>
       </c>
     </row>
@@ -8360,7 +7280,7 @@
         <v>9441344.6370000001</v>
       </c>
       <c r="C97" s="1">
-        <f>+B97/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1888379304834349</v>
       </c>
     </row>
@@ -8372,7 +7292,7 @@
         <v>9493742.5120000001</v>
       </c>
       <c r="C98" s="1">
-        <f>+B98/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.1954357810727048</v>
       </c>
     </row>
@@ -8384,7 +7304,7 @@
         <v>9544639.0950000007</v>
       </c>
       <c r="C99" s="1">
-        <f>+B99/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.2018445915471443</v>
       </c>
     </row>
@@ -8396,7 +7316,7 @@
         <v>9593956.6779999994</v>
       </c>
       <c r="C100" s="1">
-        <f>+B100/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.2080545770486155</v>
       </c>
     </row>
@@ -8408,7 +7328,7 @@
         <v>9641592.2620000001</v>
       </c>
       <c r="C101" s="1">
-        <f>+B101/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.21405276811962</v>
       </c>
     </row>
@@ -8420,7 +7340,7 @@
         <v>9687440.0289999992</v>
       </c>
       <c r="C102" s="1">
-        <f>+B102/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.2198258403390116</v>
       </c>
     </row>
@@ -8432,7 +7352,7 @@
         <v>9731543.4920000006</v>
       </c>
       <c r="C103" s="1">
-        <f>+B103/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.2253792727891519</v>
       </c>
     </row>
@@ -8444,7 +7364,7 @@
         <v>9773770.3389999997</v>
       </c>
       <c r="C104" s="1">
-        <f>+B104/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.2306964049698359</v>
       </c>
     </row>
@@ -8456,7 +7376,7 @@
         <v>9814433.7469999995</v>
       </c>
       <c r="C105" s="1">
-        <f>+B105/$B$74</f>
+        <f t="shared" si="0"/>
         <v>1.235816671591994</v>
       </c>
     </row>
@@ -8468,7 +7388,7 @@
         <v>9853288.6349999998</v>
       </c>
       <c r="C106" s="1">
-        <f>+B106/$B$74</f>
+        <f t="shared" ref="C106:C137" si="1">+B106/$B$74</f>
         <v>1.2407092124762724</v>
       </c>
     </row>
@@ -8480,7 +7400,7 @@
         <v>9890512.5690000001</v>
       </c>
       <c r="C107" s="1">
-        <f>+B107/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2453963864289728</v>
       </c>
     </row>
@@ -8492,7 +7412,7 @@
         <v>9926097.1689999998</v>
       </c>
       <c r="C108" s="1">
-        <f>+B108/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2498771382548612</v>
       </c>
     </row>
@@ -8504,7 +7424,7 @@
         <v>9960149.3560000006</v>
       </c>
       <c r="C109" s="1">
-        <f>+B109/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2541649312629533</v>
       </c>
     </row>
@@ -8516,7 +7436,7 @@
         <v>9992730.9450000003</v>
       </c>
       <c r="C110" s="1">
-        <f>+B110/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2582675490920732</v>
       </c>
     </row>
@@ -8528,7 +7448,7 @@
         <v>10023889.276000001</v>
       </c>
       <c r="C111" s="1">
-        <f>+B111/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2621909527138615</v>
       </c>
     </row>
@@ -8540,7 +7460,7 @@
         <v>10053522.446</v>
       </c>
       <c r="C112" s="1">
-        <f>+B112/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2659223106772604</v>
       </c>
     </row>
@@ -8552,7 +7472,7 @@
         <v>10081944.767000001</v>
       </c>
       <c r="C113" s="1">
-        <f>+B113/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2695012006104547</v>
       </c>
     </row>
@@ -8564,7 +7484,7 @@
         <v>10109201.361</v>
       </c>
       <c r="C114" s="1">
-        <f>+B114/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2729333041983268</v>
       </c>
     </row>
@@ -8576,7 +7496,7 @@
         <v>10135413.997</v>
       </c>
       <c r="C115" s="1">
-        <f>+B115/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2762339543845971</v>
       </c>
     </row>
@@ -8588,7 +7508,7 @@
         <v>10160484.233999999</v>
       </c>
       <c r="C116" s="1">
-        <f>+B116/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2793907556473121</v>
       </c>
     </row>
@@ -8600,7 +7520,7 @@
         <v>10184543.317</v>
       </c>
       <c r="C117" s="1">
-        <f>+B117/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.282420234131866</v>
       </c>
     </row>
@@ -8612,7 +7532,7 @@
         <v>10207386.482999999</v>
       </c>
       <c r="C118" s="1">
-        <f>+B118/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2852966064323434</v>
       </c>
     </row>
@@ -8624,7 +7544,7 @@
         <v>10229159.550000001</v>
       </c>
       <c r="C119" s="1">
-        <f>+B119/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2880382337013152</v>
       </c>
     </row>
@@ -8636,7 +7556,7 @@
         <v>10250008.009</v>
       </c>
       <c r="C120" s="1">
-        <f>+B120/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2906634359160711</v>
       </c>
     </row>
@@ -8648,7 +7568,7 @@
         <v>10269737.973999999</v>
       </c>
       <c r="C121" s="1">
-        <f>+B121/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2931477992838896</v>
       </c>
     </row>
@@ -8660,7 +7580,7 @@
         <v>10288411.766000001</v>
       </c>
       <c r="C122" s="1">
-        <f>+B122/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2954991711582473</v>
       </c>
     </row>
@@ -8672,7 +7592,7 @@
         <v>10305921.655999999</v>
       </c>
       <c r="C123" s="1">
-        <f>+B123/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2977039864881541</v>
       </c>
     </row>
@@ -8684,7 +7604,7 @@
         <v>10322362.949999999</v>
       </c>
       <c r="C124" s="1">
-        <f>+B124/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.2997742460417381</v>
       </c>
     </row>
@@ -8696,7 +7616,7 @@
         <v>10337756.759</v>
       </c>
       <c r="C125" s="1">
-        <f>+B125/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3017126080799268</v>
       </c>
     </row>
@@ -8708,7 +7628,7 @@
         <v>10352026.226</v>
       </c>
       <c r="C126" s="1">
-        <f>+B126/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3035093949010434</v>
       </c>
     </row>
@@ -8720,7 +7640,7 @@
         <v>10365079.300000001</v>
       </c>
       <c r="C127" s="1">
-        <f>+B127/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3051530156009801</v>
       </c>
     </row>
@@ -8732,7 +7652,7 @@
         <v>10376909.096999999</v>
       </c>
       <c r="C128" s="1">
-        <f>+B128/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3066426033582581</v>
       </c>
     </row>
@@ -8744,7 +7664,7 @@
         <v>10387451.696</v>
       </c>
       <c r="C129" s="1">
-        <f>+B129/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3079701093501441</v>
       </c>
     </row>
@@ -8756,7 +7676,7 @@
         <v>10396712.302999999</v>
       </c>
       <c r="C130" s="1">
-        <f>+B130/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3091361891072322</v>
       </c>
     </row>
@@ -8768,7 +7688,7 @@
         <v>10404787.203</v>
       </c>
       <c r="C131" s="1">
-        <f>+B131/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3101529666716525</v>
       </c>
     </row>
@@ -8780,7 +7700,7 @@
         <v>10411746.641000001</v>
       </c>
       <c r="C132" s="1">
-        <f>+B132/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3110292871733769</v>
       </c>
     </row>
@@ -8792,7 +7712,7 @@
         <v>10417527.736</v>
       </c>
       <c r="C133" s="1">
-        <f>+B133/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.311757232744688</v>
       </c>
     </row>
@@ -8804,7 +7724,7 @@
         <v>10422175.242000001</v>
       </c>
       <c r="C134" s="1">
-        <f>+B134/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3123424387325406</v>
       </c>
     </row>
@@ -8816,7 +7736,7 @@
         <v>10425870.549000001</v>
       </c>
       <c r="C135" s="1">
-        <f>+B135/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3128077454547593</v>
       </c>
     </row>
@@ -8828,7 +7748,7 @@
         <v>10428582.251</v>
       </c>
       <c r="C136" s="1">
-        <f>+B136/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.313149198321667</v>
       </c>
     </row>
@@ -8840,7 +7760,7 @@
         <v>10430312.539000001</v>
       </c>
       <c r="C137" s="1">
-        <f>+B137/$B$74</f>
+        <f t="shared" si="1"/>
         <v>1.3133670732202276</v>
       </c>
     </row>
@@ -8852,7 +7772,7 @@
         <v>10431045.663000001</v>
       </c>
       <c r="C138" s="1">
-        <f>+B138/$B$74</f>
+        <f t="shared" ref="C138:C152" si="2">+B138/$B$74</f>
         <v>1.3134593869374425</v>
       </c>
     </row>
@@ -8864,7 +7784,7 @@
         <v>10430806.898</v>
       </c>
       <c r="C139" s="1">
-        <f>+B139/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3134293220579802</v>
       </c>
     </row>
@@ -8876,7 +7796,7 @@
         <v>10429728.348999999</v>
       </c>
       <c r="C140" s="1">
-        <f>+B140/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3132935130169607</v>
       </c>
     </row>
@@ -8888,7 +7808,7 @@
         <v>10427932.903999999</v>
       </c>
       <c r="C141" s="1">
-        <f>+B141/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3130674336606651</v>
       </c>
     </row>
@@ -8900,7 +7820,7 @@
         <v>10425269.389</v>
       </c>
       <c r="C142" s="1">
-        <f>+B142/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3127320484181859</v>
       </c>
     </row>
@@ -8912,7 +7832,7 @@
         <v>10421812.683</v>
       </c>
       <c r="C143" s="1">
-        <f>+B143/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3122967859248305</v>
       </c>
     </row>
@@ -8924,7 +7844,7 @@
         <v>10417481.581</v>
       </c>
       <c r="C144" s="1">
-        <f>+B144/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3117514209862162</v>
       </c>
     </row>
@@ -8936,7 +7856,7 @@
         <v>10412438.077</v>
       </c>
       <c r="C145" s="1">
-        <f>+B145/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3111163516091013</v>
       </c>
     </row>
@@ -8948,7 +7868,7 @@
         <v>10406544.1</v>
       </c>
       <c r="C146" s="1">
-        <f>+B146/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3103741921298746</v>
       </c>
     </row>
@@ -8960,7 +7880,7 @@
         <v>10400000.198999999</v>
       </c>
       <c r="C147" s="1">
-        <f>+B147/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.309550195334795</v>
       </c>
     </row>
@@ -8972,7 +7892,7 @@
         <v>10392611.49</v>
       </c>
       <c r="C148" s="1">
-        <f>+B148/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3086198217646916</v>
       </c>
     </row>
@@ -8984,7 +7904,7 @@
         <v>10384422.809</v>
       </c>
       <c r="C149" s="1">
-        <f>+B149/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3075887170918172</v>
       </c>
     </row>
@@ -8996,7 +7916,7 @@
         <v>10375354.086999999</v>
       </c>
       <c r="C150" s="1">
-        <f>+B150/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3064467991649618</v>
       </c>
     </row>
@@ -9008,7 +7928,7 @@
         <v>10365536.306</v>
       </c>
       <c r="C151" s="1">
-        <f>+B151/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3052105610130105</v>
       </c>
     </row>
@@ -9020,7 +7940,7 @@
         <v>10355002.416999999</v>
       </c>
       <c r="C152" s="1">
-        <f>+B152/$B$74</f>
+        <f t="shared" si="2"/>
         <v>1.3038841517693922</v>
       </c>
     </row>
@@ -9031,832 +7951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9F325-2A17-4CBA-AE97-BA1C330D4939}">
-  <dimension ref="A1:L48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="2">
-        <f>2.33*1000000</f>
-        <v>2330000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="2">
-        <f>+E2*0.66</f>
-        <v>1537800</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="2">
-        <f>50.7*1000000</f>
-        <v>50700000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="2">
-        <v>107000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="2">
-        <f>2.81*1000000</f>
-        <v>2810000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="2">
-        <v>42600</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>2018</v>
-      </c>
-      <c r="E8" s="2">
-        <v>159000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>2018</v>
-      </c>
-      <c r="E9" s="2">
-        <v>49000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>2018</v>
-      </c>
-      <c r="E10" s="2">
-        <v>24800</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="L11" s="2">
-        <f>+$E$2*E11</f>
-        <v>233000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="L12" s="2">
-        <f>+$E$2*E12</f>
-        <v>209700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="L13" s="2">
-        <f>+$E$2*E13</f>
-        <v>186400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="L14" s="2">
-        <f>+$E$2*E14</f>
-        <v>69900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7">
-        <f>+E3/E4*1000</f>
-        <v>30.331360946745562</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="7">
-        <f>+(E8+E9-E10)/E6*1000</f>
-        <v>65.195729537366546</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>2005</v>
-      </c>
-      <c r="C31" s="11">
-        <v>24546</v>
-      </c>
-      <c r="D31" s="2">
-        <f>+C31*1000</f>
-        <v>24546000</v>
-      </c>
-      <c r="E31" s="2">
-        <v>55.998801232602979</v>
-      </c>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2006</v>
-      </c>
-      <c r="C32" s="11">
-        <v>28706</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" ref="D32:D47" si="0">+C32*1000</f>
-        <v>28706000</v>
-      </c>
-      <c r="E32" s="2">
-        <v>58.484841163276471</v>
-      </c>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>2007</v>
-      </c>
-      <c r="C33" s="11">
-        <v>28146</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="0"/>
-        <v>28146000</v>
-      </c>
-      <c r="E33" s="2">
-        <v>61.034300845079962</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>2008</v>
-      </c>
-      <c r="C34" s="11">
-        <v>26218</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="0"/>
-        <v>26218000</v>
-      </c>
-      <c r="E34" s="2">
-        <v>62.326278234916764</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2009</v>
-      </c>
-      <c r="C35" s="11">
-        <v>24904</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="0"/>
-        <v>24904000</v>
-      </c>
-      <c r="E35" s="2">
-        <v>61.477891488524705</v>
-      </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2010</v>
-      </c>
-      <c r="C36" s="11">
-        <v>31090</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="0"/>
-        <v>31090000</v>
-      </c>
-      <c r="E36" s="2">
-        <v>64.237462394672548</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>2011</v>
-      </c>
-      <c r="C37" s="11">
-        <v>33621</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="0"/>
-        <v>33621000</v>
-      </c>
-      <c r="E37" s="2">
-        <v>66.367453584778701</v>
-      </c>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>2012</v>
-      </c>
-      <c r="C38" s="11">
-        <v>35917</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="0"/>
-        <v>35917000</v>
-      </c>
-      <c r="E38" s="2">
-        <v>68.157384086511911</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2013</v>
-      </c>
-      <c r="C39" s="11">
-        <v>38506</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="0"/>
-        <v>38506000</v>
-      </c>
-      <c r="E39" s="2">
-        <v>70.075228524737241</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>2014</v>
-      </c>
-      <c r="C40" s="11">
-        <v>41686</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="0"/>
-        <v>41686000</v>
-      </c>
-      <c r="E40" s="2">
-        <v>72.216468829490253</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>2015</v>
-      </c>
-      <c r="C41" s="11">
-        <v>41548</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="0"/>
-        <v>41548000</v>
-      </c>
-      <c r="E41" s="2">
-        <v>74.456101902167802</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>2016</v>
-      </c>
-      <c r="C42" s="11">
-        <v>45448</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="0"/>
-        <v>45448000</v>
-      </c>
-      <c r="E42" s="2">
-        <v>76.508467994648427</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>2017</v>
-      </c>
-      <c r="C43" s="11">
-        <v>48081</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="0"/>
-        <v>48081000</v>
-      </c>
-      <c r="E43" s="2">
-        <v>79.1082831925698</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>2018</v>
-      </c>
-      <c r="C44" s="11">
-        <v>50730</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="0"/>
-        <v>50730000</v>
-      </c>
-      <c r="E44" s="2">
-        <v>81.704465409096983</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2019</v>
-      </c>
-      <c r="C45" s="11">
-        <v>52218</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="0"/>
-        <v>52218000</v>
-      </c>
-      <c r="E45" s="2">
-        <v>83.780536101434265</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>2020</v>
-      </c>
-      <c r="C46" s="11">
-        <v>51792</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="0"/>
-        <v>51792000</v>
-      </c>
-      <c r="E46" s="2">
-        <v>81.17414903171705</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="11">
-        <v>58289</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="0"/>
-        <v>58289000</v>
-      </c>
-      <c r="E47" s="2">
-        <v>86.201968718126139</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="2">
-        <v>88.7861839055075</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" display="https://www.worldstainless.org/news/2022-edition-of-stainless-steel-in-figures-available/" xr:uid="{AB52204F-95A0-430F-BC3F-DC400C2842B4}"/>
-    <hyperlink ref="A25" r:id="rId2" xr:uid="{B1FCD1E4-D0EF-413B-A8CC-60779F412F48}"/>
-    <hyperlink ref="G29" r:id="rId3" xr:uid="{C64478BB-453D-45B8-A9BB-98D9BBA48699}"/>
-    <hyperlink ref="H7" r:id="rId4" xr:uid="{BFA5E1E5-921B-49B5-BF9E-EADE1F7E8E20}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B93CF7-70F0-44D3-843F-1B579F95C183}">
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9876,48 +7975,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>2018</v>
@@ -9926,10 +8025,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -9941,13 +8040,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2018</v>
@@ -9956,10 +8055,10 @@
         <v>0.22</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -9971,13 +8070,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>2018</v>
@@ -9986,10 +8085,10 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -10001,13 +8100,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>2018</v>
@@ -10016,10 +8115,10 @@
         <v>0.04</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -10031,13 +8130,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>2018</v>
@@ -10046,10 +8145,10 @@
         <v>0.03</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -10061,13 +8160,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>2018</v>
@@ -10076,10 +8175,10 @@
         <v>0.02</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -10091,13 +8190,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>2018</v>
@@ -10106,10 +8205,10 @@
         <v>0.06</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -10121,13 +8220,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>2018</v>
@@ -10137,16 +8236,16 @@
         <v>0.14249999999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
@@ -10155,13 +8254,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>2018</v>
@@ -10170,13 +8269,13 @@
         <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -10184,13 +8283,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -10199,30 +8298,30 @@
         <v>95000</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I11">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -10231,13 +8330,13 @@
         <v>49000</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -10245,13 +8344,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>2018</v>
@@ -10260,138 +8359,138 @@
         <v>229.13</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>67</v>
+      <c r="A17" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2">
         <f>+E4*E12</f>
         <v>2940</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>87</v>
+      <c r="A44" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="P44" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="Q44" s="2">
         <f>+E3*E12</f>
         <v>10780</v>
       </c>
-      <c r="R44" s="14" t="s">
-        <v>63</v>
+      <c r="R44" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="T44" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="V44" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>88</v>
+      <c r="A45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="P45" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Q45" s="1">
         <f>+Q44/E13</f>
         <v>47.047527604416707</v>
       </c>
       <c r="R45" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>100</v>
+        <v>26</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="11">
+      <c r="A49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="9">
         <v>34703</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <v>29745</v>
       </c>
       <c r="D49" s="2">
@@ -10406,21 +8505,21 @@
         <f t="shared" ref="F49:F57" si="1">+(B49+C49)/5.323</f>
         <v>12107.458200263009</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="14">
         <v>84</v>
       </c>
-      <c r="O49" s="8" t="s">
-        <v>79</v>
+      <c r="O49" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="11">
+      <c r="A50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="9">
         <v>37097</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="9">
         <v>31798</v>
       </c>
       <c r="D50" s="2">
@@ -10435,24 +8534,24 @@
         <f t="shared" si="1"/>
         <v>12942.889348111967</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="14">
         <v>81</v>
       </c>
-      <c r="M50" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="O50" s="9" t="s">
-        <v>34</v>
+      <c r="M50" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="11">
+      <c r="A51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="9">
         <v>39657</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="9">
         <v>33992</v>
       </c>
       <c r="D51" s="2">
@@ -10467,21 +8566,21 @@
         <f t="shared" si="1"/>
         <v>13835.994739808377</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="14">
         <v>86</v>
       </c>
       <c r="R51" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="11">
+      <c r="A52" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="9">
         <v>42393</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="9">
         <v>36337</v>
       </c>
       <c r="D52" s="2">
@@ -10496,30 +8595,30 @@
         <f t="shared" si="1"/>
         <v>14790.531655081721</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="14">
         <v>89</v>
       </c>
       <c r="O52" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="P52" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="Q52" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="R52" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="11">
+      <c r="A53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="9">
         <v>45318</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="9">
         <v>38844</v>
       </c>
       <c r="D53" s="2">
@@ -10534,13 +8633,13 @@
         <f t="shared" si="1"/>
         <v>15811.008829607363</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="14">
         <v>90.917052319239687</v>
       </c>
-      <c r="O53" s="16">
+      <c r="O53" s="12">
         <v>2014</v>
       </c>
-      <c r="P53" s="11">
+      <c r="P53" s="9">
         <v>35.57</v>
       </c>
       <c r="Q53" s="2">
@@ -10551,13 +8650,13 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="11">
+      <c r="A54" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="9">
         <v>48445</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="9">
         <v>41525</v>
       </c>
       <c r="D54" s="2">
@@ -10572,13 +8671,13 @@
         <f t="shared" si="1"/>
         <v>16902.122863047152</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="14">
         <v>93.099061574901441</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O54" s="12">
         <v>2015</v>
       </c>
-      <c r="P54" s="11">
+      <c r="P54" s="9">
         <v>38.28</v>
       </c>
       <c r="Q54" s="2">
@@ -10589,13 +8688,13 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="11">
+      <c r="A55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="9">
         <v>51788</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="9">
         <v>44390</v>
       </c>
       <c r="D55" s="2">
@@ -10610,13 +8709,13 @@
         <f t="shared" si="1"/>
         <v>18068.38249107646</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="14">
         <v>95.333439052699077</v>
       </c>
-      <c r="O55" s="16">
+      <c r="O55" s="12">
         <v>2016</v>
       </c>
-      <c r="P55" s="11">
+      <c r="P55" s="9">
         <v>41.29</v>
       </c>
       <c r="Q55" s="2">
@@ -10627,13 +8726,13 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="11">
+      <c r="A56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="9">
         <v>63265</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="9">
         <v>54227</v>
       </c>
       <c r="D56" s="2">
@@ -10648,13 +8747,13 @@
         <f t="shared" si="1"/>
         <v>22072.515498778881</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="14">
         <v>102.36350073663795</v>
       </c>
-      <c r="O56" s="16">
+      <c r="O56" s="12">
         <v>2017</v>
       </c>
-      <c r="P56" s="11">
+      <c r="P56" s="9">
         <v>44.91</v>
       </c>
       <c r="Q56" s="2">
@@ -10665,13 +8764,13 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="11">
+      <c r="A57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="9">
         <v>72297</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="9">
         <v>61969</v>
       </c>
       <c r="D57" s="2">
@@ -10686,13 +8785,13 @@
         <f t="shared" si="1"/>
         <v>25223.746007890284</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="14">
         <v>107.33591014842087</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="12">
         <v>2018</v>
       </c>
-      <c r="P57" s="11">
+      <c r="P57" s="9">
         <v>48.23</v>
       </c>
       <c r="Q57" s="2">
@@ -10703,10 +8802,10 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O58" s="16">
+      <c r="O58" s="12">
         <v>2019</v>
       </c>
-      <c r="P58" s="11">
+      <c r="P58" s="9">
         <v>51.84</v>
       </c>
       <c r="Q58" s="2">
@@ -10717,10 +8816,10 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O59" s="16">
+      <c r="O59" s="12">
         <v>2020</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="9">
         <v>55.76</v>
       </c>
       <c r="Q59" s="2">
@@ -10731,10 +8830,10 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O60" s="16">
+      <c r="O60" s="12">
         <v>2021</v>
       </c>
-      <c r="P60" s="11">
+      <c r="P60" s="9">
         <v>60.58</v>
       </c>
       <c r="Q60" s="2">
@@ -10745,10 +8844,10 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O61" s="16">
+      <c r="O61" s="12">
         <v>2022</v>
       </c>
-      <c r="P61" s="11">
+      <c r="P61" s="9">
         <v>65.41</v>
       </c>
       <c r="Q61" s="2">
@@ -10756,26 +8855,26 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O62" s="16">
+      <c r="O62" s="12">
         <v>2023</v>
       </c>
-      <c r="P62" s="15">
+      <c r="P62" s="11">
         <v>70.83</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O63" s="16">
+      <c r="O63" s="12">
         <v>2024</v>
       </c>
-      <c r="P63" s="15">
+      <c r="P63" s="11">
         <v>77.16</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O64" s="16">
+      <c r="O64" s="12">
         <v>2025</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P64" s="9">
         <v>85</v>
       </c>
     </row>
@@ -10792,7 +8891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73031F22-7941-494E-94B0-9AB59924F342}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -10812,17 +8911,17 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>130</v>
+      <c r="B2" s="17" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
-        <v>104</v>
+      <c r="B3" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -10830,33 +8929,33 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" s="22">
-        <f>+C6/SUM($C$6:$C$30)</f>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:D30" si="0">+C6/SUM($C$6:$C$30)</f>
         <v>0.24509053031463496</v>
       </c>
     </row>
@@ -10865,14 +8964,14 @@
         <f>+B7</f>
         <v>ceramics and glass</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>107</v>
+      <c r="B7" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="22">
-        <f>+C7/SUM($C$6:$C$30)</f>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
         <v>0.12254526515731748</v>
       </c>
     </row>
@@ -10881,14 +8980,14 @@
         <f>+B8</f>
         <v>residential photovoltaic systems</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>117</v>
+      <c r="B8" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="22">
-        <f>+C8/SUM($C$6:$C$30)</f>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
         <v>0.12254526515731748</v>
       </c>
     </row>
@@ -10897,69 +8996,69 @@
         <f>+B9</f>
         <v>industrial energy storage systems</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>118</v>
+      <c r="B9" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="22">
-        <f>+C9/SUM($C$6:$C$30)</f>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
         <v>0.12254526515731748</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>127</v>
+        <v>112</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C10">
         <v>3.5</v>
       </c>
-      <c r="D10" s="22">
-        <f>+C10/SUM($C$6:$C$30)</f>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
         <v>7.1484738008435203E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>120</v>
+        <v>112</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="22">
-        <f>+C11/SUM($C$6:$C$30)</f>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
         <v>6.1272632578658739E-2</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>139</v>
+      <c r="L11" s="19" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="22">
-        <f>+C12/SUM($C$6:$C$30)</f>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
         <v>6.1272632578658739E-2</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>135</v>
+      <c r="L12" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="M12" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10967,21 +9066,21 @@
         <f>+B13</f>
         <v>batteries nec (not elsewhere)</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>128</v>
+      <c r="B13" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="C13">
         <v>2.5</v>
       </c>
-      <c r="D13" s="22">
-        <f>+C13/SUM($C$6:$C$30)</f>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
         <v>5.1060527148882283E-2</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>102</v>
+      <c r="E13" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="M13" s="5">
         <v>0.50243558714500169</v>
@@ -10989,20 +9088,20 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C14">
         <v>1.5</v>
       </c>
-      <c r="D14" s="22">
-        <f>+C14/SUM($C$6:$C$30)</f>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
         <v>3.063631628932937E-2</v>
       </c>
       <c r="L14" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="M14" s="5">
         <v>0.12254526515731748</v>
@@ -11013,18 +9112,18 @@
         <f>+B15</f>
         <v>synthetic rubber</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>110</v>
+      <c r="B15" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="C15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D15" s="22">
-        <f>+C15/SUM($C$6:$C$30)</f>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
         <v>2.2466631945508207E-2</v>
       </c>
       <c r="L15" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="M15" s="5">
         <v>0.12254526515731748</v>
@@ -11035,21 +9134,21 @@
         <f>+B16</f>
         <v>other uses nec</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>129</v>
+      <c r="B16" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="C16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D16" s="22">
-        <f>+C16/SUM($C$6:$C$30)</f>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
         <v>2.2466631945508207E-2</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>103</v>
+      <c r="E16" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M16" s="5">
         <v>0.12254526515731748</v>
@@ -11057,20 +9156,20 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C17">
         <v>0.7</v>
       </c>
-      <c r="D17" s="22">
-        <f>+C17/SUM($C$6:$C$30)</f>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
         <v>1.4296947601687038E-2</v>
       </c>
       <c r="L17" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="M17" s="5">
         <v>5.1060527148882283E-2</v>
@@ -11078,20 +9177,20 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
-      <c r="D18" s="22">
-        <f>+C18/SUM($C$6:$C$30)</f>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
         <v>1.0212105429776457E-2</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="M18" s="5">
         <v>2.2466631945508207E-2</v>
@@ -11102,18 +9201,18 @@
         <f>+B19</f>
         <v>air conditioning</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>105</v>
+      <c r="B19" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C19">
         <v>0.4</v>
       </c>
-      <c r="D19" s="22">
-        <f>+C19/SUM($C$6:$C$30)</f>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
         <v>8.169684343821166E-3</v>
       </c>
       <c r="L19" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="M19" s="5">
         <v>2.2466631945508207E-2</v>
@@ -11124,18 +9223,18 @@
         <f>+B20</f>
         <v>lubricants and greases</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>108</v>
+      <c r="B20" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C20">
         <v>0.4</v>
       </c>
-      <c r="D20" s="22">
-        <f>+C20/SUM($C$6:$C$30)</f>
+      <c r="D20" s="18">
+        <f t="shared" si="0"/>
         <v>8.169684343821166E-3</v>
       </c>
       <c r="L20" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="M20" s="5">
         <v>8.4045627687060233E-3</v>
@@ -11143,20 +9242,20 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>125</v>
+        <v>112</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="C21">
         <v>0.4</v>
       </c>
-      <c r="D21" s="22">
-        <f>+C21/SUM($C$6:$C$30)</f>
+      <c r="D21" s="18">
+        <f t="shared" si="0"/>
         <v>8.169684343821166E-3</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="M21" s="5">
         <v>8.169684343821166E-3</v>
@@ -11167,18 +9266,18 @@
         <f>+B22</f>
         <v>pharmaceuticals</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>109</v>
+      <c r="B22" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C22">
         <v>0.35</v>
       </c>
-      <c r="D22" s="22">
-        <f>+C22/SUM($C$6:$C$30)</f>
+      <c r="D22" s="18">
+        <f t="shared" si="0"/>
         <v>7.1484738008435189E-3</v>
       </c>
       <c r="L22" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="M22" s="5">
         <v>8.169684343821166E-3</v>
@@ -11186,20 +9285,20 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C23">
         <v>0.2</v>
       </c>
-      <c r="D23" s="22">
-        <f>+C23/SUM($C$6:$C$30)</f>
+      <c r="D23" s="18">
+        <f t="shared" si="0"/>
         <v>4.084842171910583E-3</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="M23" s="5">
         <v>7.1484738008435189E-3</v>
@@ -11207,20 +9306,20 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C24">
         <v>0.15</v>
       </c>
-      <c r="D24" s="22">
-        <f>+C24/SUM($C$6:$C$30)</f>
+      <c r="D24" s="18">
+        <f t="shared" si="0"/>
         <v>3.0636316289329368E-3</v>
       </c>
       <c r="L24" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="M24" s="5">
         <v>2.0424210859552915E-3</v>
@@ -11231,18 +9330,18 @@
         <f>+B25</f>
         <v>aluminum production</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>106</v>
+      <c r="B25" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C25">
         <v>0.1</v>
       </c>
-      <c r="D25" s="22">
-        <f>+C25/SUM($C$6:$C$30)</f>
+      <c r="D25" s="18">
+        <f t="shared" si="0"/>
         <v>2.0424210859552915E-3</v>
       </c>
       <c r="L25" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="M25" s="5">
         <v>1</v>
@@ -11250,76 +9349,76 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="C26">
         <v>0.05</v>
       </c>
-      <c r="D26" s="22">
-        <f>+C26/SUM($C$6:$C$30)</f>
+      <c r="D26" s="18">
+        <f t="shared" si="0"/>
         <v>1.0212105429776457E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="C27">
         <v>0.01</v>
       </c>
-      <c r="D27" s="22">
-        <f>+C27/SUM($C$6:$C$30)</f>
+      <c r="D27" s="18">
+        <f t="shared" si="0"/>
         <v>2.0424210859552915E-4</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C28">
         <v>1.5E-3</v>
       </c>
-      <c r="D28" s="22">
-        <f>+C28/SUM($C$6:$C$30)</f>
+      <c r="D28" s="18">
+        <f t="shared" si="0"/>
         <v>3.0636316289329372E-5</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="19" t="s">
         <v>113</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="22">
-        <f>+C29/SUM($C$6:$C$30)</f>
+      <c r="D29" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="D30" s="22">
-        <f>+C30/SUM($C$6:$C$30)</f>
+      <c r="D30" s="18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11329,522 +9428,4 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5FDB4B-AD53-4E74-A8FA-E29BECCBBC1D}">
-  <dimension ref="A1:L16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2">
-        <v>2018</v>
-      </c>
-      <c r="E2" s="2">
-        <v>148000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3">
-        <v>2018</v>
-      </c>
-      <c r="E3" s="2">
-        <v>125000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9270</v>
-      </c>
-      <c r="F4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1390</v>
-      </c>
-      <c r="F5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4240</v>
-      </c>
-      <c r="F6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="2">
-        <v>797</v>
-      </c>
-      <c r="F7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8">
-        <v>2018</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2840</v>
-      </c>
-      <c r="F8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9">
-        <v>2022</v>
-      </c>
-      <c r="E9" s="2">
-        <v>187000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" t="s">
-        <v>152</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10">
-        <v>2022</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>152</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="2">
-        <f>+E10*$E$9</f>
-        <v>74800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I11" t="s">
-        <v>154</v>
-      </c>
-      <c r="L11" s="2">
-        <f t="shared" ref="L11:L16" si="0">+E11*$E$9</f>
-        <v>56100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12">
-        <v>2022</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="G12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" t="s">
-        <v>154</v>
-      </c>
-      <c r="L12" s="2">
-        <f t="shared" si="0"/>
-        <v>16830</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13">
-        <v>2022</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="0"/>
-        <v>9350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14">
-        <v>2022</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="G14" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="0"/>
-        <v>5610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="G15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="0"/>
-        <v>5610</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="0"/>
-        <v>18700</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{BB6C0676-13BA-463C-A6D0-B3F90B6FB92E}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{D1FAD6DE-940E-4BD7-A93C-88DE3390613A}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{B1A75902-5C43-4850-8AE4-A4A9ECA82A48}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{FCE834AE-282B-4BB5-B9AC-AA077B9001EA}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{4F083F51-DC35-436C-AA05-BD45D830C2C8}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{158A74D3-BF9B-4C12-AA74-2A0B6FF0A35D}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{DC963C3E-5D5A-420C-8E1C-63A5FDA8CAED}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{29C4E672-D2E7-46D4-9B8B-0C08F8BFC87E}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{76287046-4183-4CC5-AC40-030ACDC668EF}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{93B450AA-826F-4211-A370-047062EF1FB8}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{46A7876D-8311-4230-BE6D-EC1C34025505}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{833C0374-46A2-43BB-B0A4-293A519F0FD7}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{B7286EB1-841A-4AE1-A58D-D5E8AC151674}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{64E764A5-1E1F-4BD7-8F0A-0AEFE99EC5A4}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{A23DF81C-D770-479B-A1B9-CA3A8F39BB2A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
-</worksheet>
 </file>